--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N2">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O2">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P2">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q2">
-        <v>24.291817077692</v>
+        <v>13.62837610577</v>
       </c>
       <c r="R2">
-        <v>218.626353699228</v>
+        <v>122.65538495193</v>
       </c>
       <c r="S2">
-        <v>0.003510861362483641</v>
+        <v>0.003701537178299713</v>
       </c>
       <c r="T2">
-        <v>0.003709996774915225</v>
+        <v>0.004194367784543922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O3">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P3">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q3">
-        <v>48.75425167488267</v>
+        <v>51.49477370974489</v>
       </c>
       <c r="R3">
-        <v>438.788265073944</v>
+        <v>463.452963387704</v>
       </c>
       <c r="S3">
-        <v>0.007046381829514911</v>
+        <v>0.01398624589572713</v>
       </c>
       <c r="T3">
-        <v>0.00744605131426444</v>
+        <v>0.01584840469944824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N4">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O4">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P4">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q4">
-        <v>5.016021052819333</v>
+        <v>8.67035199651067</v>
       </c>
       <c r="R4">
-        <v>45.144189475374</v>
+        <v>78.033167968596</v>
       </c>
       <c r="S4">
-        <v>0.0007249583039187415</v>
+        <v>0.002354912281180848</v>
       </c>
       <c r="T4">
-        <v>0.0007660778059273408</v>
+        <v>0.0026684503577373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N5">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O5">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P5">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q5">
-        <v>10.645618289766</v>
+        <v>23.45323912008467</v>
       </c>
       <c r="R5">
-        <v>63.873709738596</v>
+        <v>140.719434720508</v>
       </c>
       <c r="S5">
-        <v>0.001538595890696527</v>
+        <v>0.006370020601191924</v>
       </c>
       <c r="T5">
-        <v>0.001083909844913171</v>
+        <v>0.004812092545975438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N6">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O6">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P6">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q6">
-        <v>16.473386382642</v>
+        <v>9.973048723872443</v>
       </c>
       <c r="R6">
-        <v>148.260477443778</v>
+        <v>89.757438514852</v>
       </c>
       <c r="S6">
-        <v>0.002380874826082669</v>
+        <v>0.002708731425219399</v>
       </c>
       <c r="T6">
-        <v>0.002515917609459495</v>
+        <v>0.003069377742179213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N7">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O7">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P7">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q7">
-        <v>238.634317967958</v>
+        <v>126.755364591405</v>
       </c>
       <c r="R7">
-        <v>2147.708861711622</v>
+        <v>1140.798281322645</v>
       </c>
       <c r="S7">
-        <v>0.03448947454349682</v>
+        <v>0.03442741020225987</v>
       </c>
       <c r="T7">
-        <v>0.03644571121269678</v>
+        <v>0.0390111495041008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O8">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P8">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q8">
         <v>478.944722795484</v>
@@ -948,10 +948,10 @@
         <v>4310.502505159357</v>
       </c>
       <c r="S8">
-        <v>0.06922119150865372</v>
+        <v>0.1300838547468139</v>
       </c>
       <c r="T8">
-        <v>0.07314740479277214</v>
+        <v>0.1474034984270928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N9">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O9">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P9">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q9">
-        <v>49.275637101339</v>
+        <v>80.64156873306602</v>
       </c>
       <c r="R9">
-        <v>443.480733912051</v>
+        <v>725.7741185975941</v>
       </c>
       <c r="S9">
-        <v>0.007121736914844802</v>
+        <v>0.02190266561952875</v>
       </c>
       <c r="T9">
-        <v>0.007525680526210761</v>
+        <v>0.02481883353995873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N10">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O10">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P10">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q10">
-        <v>104.578832114559</v>
+        <v>218.134857186477</v>
       </c>
       <c r="R10">
-        <v>627.472992687354</v>
+        <v>1308.809143118862</v>
       </c>
       <c r="S10">
-        <v>0.01511462810008749</v>
+        <v>0.05924655127598002</v>
       </c>
       <c r="T10">
-        <v>0.01064795135548523</v>
+        <v>0.04475650953413694</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N11">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O11">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P11">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q11">
-        <v>161.828788331133</v>
+        <v>92.757744376242</v>
       </c>
       <c r="R11">
-        <v>1456.459094980197</v>
+        <v>834.8196993861779</v>
       </c>
       <c r="S11">
-        <v>0.02338888188035458</v>
+        <v>0.02519348135971347</v>
       </c>
       <c r="T11">
-        <v>0.02471549497004467</v>
+        <v>0.02854779555239519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N12">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O12">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P12">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q12">
-        <v>274.8805294089246</v>
+        <v>158.83495126895</v>
       </c>
       <c r="R12">
-        <v>2473.924764680322</v>
+        <v>1429.51456142055</v>
       </c>
       <c r="S12">
-        <v>0.03972808731904606</v>
+        <v>0.04314039125222862</v>
       </c>
       <c r="T12">
-        <v>0.04198145714388004</v>
+        <v>0.04888419555577322</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O13">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P13">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q13">
-        <v>551.6917268257729</v>
+        <v>600.1573341764489</v>
       </c>
       <c r="R13">
-        <v>4965.225541431956</v>
+        <v>5401.41600758804</v>
       </c>
       <c r="S13">
-        <v>0.0797352113067416</v>
+        <v>0.1630058246149244</v>
       </c>
       <c r="T13">
-        <v>0.08425777786506762</v>
+        <v>0.184708770039131</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N14">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O14">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P14">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q14">
-        <v>56.76012288893345</v>
+        <v>101.0505526236067</v>
       </c>
       <c r="R14">
-        <v>510.841106000401</v>
+        <v>909.4549736124601</v>
       </c>
       <c r="S14">
-        <v>0.008203458874370602</v>
+        <v>0.027445850813117</v>
       </c>
       <c r="T14">
-        <v>0.008668757556844833</v>
+        <v>0.03110005031012968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N15">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O15">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P15">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q15">
-        <v>120.463330594709</v>
+        <v>273.3410102440967</v>
       </c>
       <c r="R15">
-        <v>722.779983568254</v>
+        <v>1640.04606146458</v>
       </c>
       <c r="S15">
-        <v>0.01741039180512554</v>
+        <v>0.07424082692758656</v>
       </c>
       <c r="T15">
-        <v>0.01226527068964683</v>
+        <v>0.05608360666815498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N16">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O16">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P16">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q16">
-        <v>186.408993429183</v>
+        <v>116.2331224032244</v>
       </c>
       <c r="R16">
-        <v>1677.680940862647</v>
+        <v>1046.09810162902</v>
       </c>
       <c r="S16">
-        <v>0.02694142354838473</v>
+        <v>0.03156951500210217</v>
       </c>
       <c r="T16">
-        <v>0.02846953614979097</v>
+        <v>0.03577274800176863</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N17">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O17">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P17">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q17">
-        <v>98.91789833231098</v>
+        <v>67.51805440778999</v>
       </c>
       <c r="R17">
-        <v>593.5073899938659</v>
+        <v>405.1083264467399</v>
       </c>
       <c r="S17">
-        <v>0.01429646148751553</v>
+        <v>0.01833825150239916</v>
       </c>
       <c r="T17">
-        <v>0.01007156944031935</v>
+        <v>0.01385323045021328</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O18">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P18">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q18">
-        <v>198.530562576678</v>
+        <v>255.116743628712</v>
       </c>
       <c r="R18">
-        <v>1191.183375460068</v>
+        <v>1530.700461772272</v>
       </c>
       <c r="S18">
-        <v>0.02869333649242281</v>
+        <v>0.06929102220393117</v>
       </c>
       <c r="T18">
-        <v>0.02021387818309064</v>
+        <v>0.05234438510107255</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N19">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O19">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P19">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q19">
-        <v>20.4255720742755</v>
+        <v>42.95488276018801</v>
       </c>
       <c r="R19">
-        <v>122.553432445653</v>
+        <v>257.729296561128</v>
       </c>
       <c r="S19">
-        <v>0.002952078536276056</v>
+        <v>0.01166676750717381</v>
       </c>
       <c r="T19">
-        <v>0.002079679926207217</v>
+        <v>0.008813403985914049</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N20">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O20">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P20">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q20">
-        <v>43.34966726876549</v>
+        <v>116.192645599086</v>
       </c>
       <c r="R20">
-        <v>173.398669075062</v>
+        <v>464.7705823963439</v>
       </c>
       <c r="S20">
-        <v>0.006265265023347968</v>
+        <v>0.03155852129351837</v>
       </c>
       <c r="T20">
-        <v>0.002942502091619267</v>
+        <v>0.01589346247432137</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N21">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O21">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P21">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q21">
-        <v>67.08072739784849</v>
+        <v>49.40873667735599</v>
       </c>
       <c r="R21">
-        <v>402.484364387091</v>
+        <v>296.4524200641359</v>
       </c>
       <c r="S21">
-        <v>0.009695080991066822</v>
+        <v>0.01341966748823599</v>
       </c>
       <c r="T21">
-        <v>0.006829989470913379</v>
+        <v>0.01013759388431587</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N22">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O22">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P22">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q22">
-        <v>961.2454985201452</v>
+        <v>101.247414137695</v>
       </c>
       <c r="R22">
-        <v>8651.209486681308</v>
+        <v>911.2267272392548</v>
       </c>
       <c r="S22">
-        <v>0.1389274285172721</v>
+        <v>0.02749931941478449</v>
       </c>
       <c r="T22">
-        <v>0.1468073667772879</v>
+        <v>0.03116063783620764</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O23">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P23">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q23">
-        <v>1929.242460797087</v>
+        <v>382.5630169914404</v>
       </c>
       <c r="R23">
-        <v>17363.18214717379</v>
+        <v>3443.067152922964</v>
       </c>
       <c r="S23">
-        <v>0.278830636374893</v>
+        <v>0.1039060867887836</v>
       </c>
       <c r="T23">
-        <v>0.2946458589201079</v>
+        <v>0.1177403662456501</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N24">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O24">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P24">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q24">
-        <v>198.4877311600015</v>
+        <v>64.41344973878734</v>
       </c>
       <c r="R24">
-        <v>1786.389580440014</v>
+        <v>579.721047649086</v>
       </c>
       <c r="S24">
-        <v>0.02868714612941172</v>
+        <v>0.01749502487605365</v>
       </c>
       <c r="T24">
-        <v>0.03031427579537048</v>
+        <v>0.01982435004573452</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N25">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O25">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P25">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q25">
-        <v>421.255134075526</v>
+        <v>174.2379132797963</v>
       </c>
       <c r="R25">
-        <v>2527.530804453156</v>
+        <v>1045.427479678778</v>
       </c>
       <c r="S25">
-        <v>0.06088339827537303</v>
+        <v>0.047323915106912</v>
       </c>
       <c r="T25">
-        <v>0.04289112897121516</v>
+        <v>0.03574981517167066</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N26">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O26">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P26">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q26">
-        <v>651.864307023762</v>
+        <v>74.09139478722021</v>
       </c>
       <c r="R26">
-        <v>5866.778763213858</v>
+        <v>666.8225530849819</v>
       </c>
       <c r="S26">
-        <v>0.09421301015861855</v>
+        <v>0.02012360462233384</v>
       </c>
       <c r="T26">
-        <v>0.09955675481194927</v>
+        <v>0.02280290454237385</v>
       </c>
     </row>
   </sheetData>
